--- a/StructureDefinition-profile-DeviceDefinition.xlsx
+++ b/StructureDefinition-profile-DeviceDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6682463-06:00</t>
+    <t>2026-02-09T22:05:43.0665094-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,33 +416,250 @@
     <t>DeviceDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Additional information to describe the device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.description` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:regulatoryIdentifier</t>
+  </si>
+  <si>
+    <t>regulatoryIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.regulatoryIdentifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifier associated with the regulatory documentation (certificates, technical documentation, post-market surveillance documentation and reports) of a set of device models sharing the same intended purpose, risk class and essential design and manufacturing characteristics. One example is the Basic UDI-DI in Europe.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.regulatoryIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:partNumber</t>
+  </si>
+  <si>
+    <t>partNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.partNumber|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.partNumber from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The part number or catalog number of the device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.partNumber` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:classification</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.classification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>What kind of device or device system this is.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.classification` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:hasPart</t>
+  </si>
+  <si>
+    <t>hasPart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.hasPart from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A device that is part (for example a component) of the present device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.hasPart` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:packaging</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.packaging from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information about the packaging of the device, i.e. how the device is packaged.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.packaging` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.link from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An associated device, attached to, used with, communicating with or linking a previous or new device model to the focal device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.link` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:productionIdentifierInUDI</t>
+  </si>
+  <si>
+    <t>productionIdentifierInUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.productionIdentifierInUDI|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.productionIdentifierInUDI from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the production identifier(s) that are expected to appear in the UDI carrier on the device label.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.productionIdentifierInUDI` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:guideline</t>
+  </si>
+  <si>
+    <t>guideline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.guideline from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information aimed at providing directions for the usage of this model of device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.guideline` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:correctiveAction</t>
+  </si>
+  <si>
+    <t>correctiveAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.correctiveAction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Tracking of latest field safety corrective action.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.correctiveAction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:chargeItem</t>
+  </si>
+  <si>
+    <t>chargeItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.chargeItem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Billing code or reference associated with the device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.chargeItem` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -450,6 +667,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -507,10 +727,27 @@
     <t>DeviceDefinition.udiDeviceIdentifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.udiDeviceIdentifier.extension:marketDistribution</t>
+  </si>
+  <si>
+    <t>marketDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.udiDeviceIdentifier.marketDistribution from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates where and when the device is available on the market.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.udiDeviceIdentifier.modifierExtension</t>
@@ -591,6 +828,12 @@
     <t>DeviceDefinition.deviceName.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>DeviceDefinition.deviceName.modifierExtension</t>
   </si>
   <si>
@@ -651,9 +894,6 @@
     <t>What kind of device or device system this is</t>
   </si>
   <si>
-    <t>What kind of device or device system this is.</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -720,17 +960,10 @@
     <t>DeviceDefinition.version.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>DeviceDefinition.version.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version|0.0.1-snapshot-3}
@@ -743,8 +976,7 @@
     <t>The version of the device or software.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `DeviceDefinition.version` is mapped to FHIR R4 element `DeviceDefinition.version`.</t>
   </si>
   <si>
     <t>DeviceDefinition.version.value</t>
@@ -857,6 +1089,12 @@
     <t>DeviceDefinition.property.extension</t>
   </si>
   <si>
+    <t>DeviceDefinition.property.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property.value|0.0.1-snapshot-3}
 </t>
   </si>
@@ -867,7 +1105,8 @@
     <t>The value of the property specified by the associated property.type code.</t>
   </si>
   <si>
-    <t>This use of string or CodeableConcept is supported to address different purposes The text element of the valueCodeableConcept choice type is used for properties which would usually be coded (such as the size of an implant, or a security classification) but for which there is not currently an appropriate concept in the vocabulary (e.g., a custom implant size, or a security classification which depends on configuration. Otherwise the valueString choice type is used for textual descriptive device properties that cannot be expressed in other elements.</t>
+    <t>Element `DeviceDefinition.property.value[x]` is mapped to FHIR R4 element `DeviceDefinition.property.valueQuantity`.
+Element `DeviceDefinition.property.value[x]` is mapped to FHIR R4 element `DeviceDefinition.property.valueCode`.</t>
   </si>
   <si>
     <t>DeviceDefinition.property.modifierExtension</t>
@@ -1360,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL70"/>
+  <dimension ref="A1:AL82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1369,9 +1608,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.11328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.11328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.6953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1379,7 +1618,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2287,7 +2526,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2306,17 +2545,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2353,16 +2590,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2383,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2391,43 +2626,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2475,7 +2710,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2484,7 +2719,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -2493,17 +2728,19 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2524,15 +2761,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2581,7 +2820,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2590,13 +2829,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2604,12 +2843,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2618,7 +2859,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2630,15 +2871,17 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -2687,7 +2930,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2696,10 +2939,10 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2710,12 +2953,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2724,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2736,15 +2981,17 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2793,37 +3040,39 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2842,16 +3091,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2901,7 +3150,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2910,7 +3159,7 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>136</v>
@@ -2919,19 +3168,21 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2944,26 +3195,24 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3011,7 +3260,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3020,7 +3269,7 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>136</v>
@@ -3029,26 +3278,28 @@
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3060,15 +3311,17 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3117,19 +3370,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3140,21 +3393,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3166,15 +3421,17 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3223,19 +3480,19 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3246,18 +3503,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -3272,15 +3531,17 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3329,19 +3590,19 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -3352,12 +3613,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3378,15 +3641,17 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3435,35 +3700,37 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3484,15 +3751,17 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3541,7 +3810,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3550,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -3564,42 +3833,46 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3647,37 +3920,37 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3696,17 +3969,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3755,7 +4026,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3767,25 +4038,25 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3798,26 +4069,22 @@
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3865,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3877,29 +4144,29 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>85</v>
@@ -3914,13 +4181,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3971,10 +4238,10 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>85</v>
@@ -3983,21 +4250,21 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4005,10 +4272,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4020,13 +4287,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4053,59 +4320,59 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4114,7 +4381,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4126,15 +4393,17 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4183,65 +4452,69 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4265,13 +4538,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4289,33 +4562,33 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4323,10 +4596,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4338,13 +4611,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4395,13 +4668,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4418,10 +4691,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4429,7 +4702,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
@@ -4444,13 +4717,13 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4501,10 +4774,10 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>85</v>
@@ -4513,32 +4786,32 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4550,17 +4823,15 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4609,69 +4880,65 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4719,44 +4986,44 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>128</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4768,13 +5035,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4825,13 +5092,13 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
@@ -4848,10 +5115,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4874,13 +5141,13 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4931,7 +5198,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4943,25 +5210,25 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4980,15 +5247,17 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5037,7 +5306,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5049,53 +5318,57 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5143,44 +5416,44 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5192,13 +5465,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5237,29 +5510,31 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5270,10 +5545,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5281,10 +5556,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5296,13 +5571,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5329,13 +5604,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5353,33 +5628,33 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5402,13 +5677,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5432,7 +5707,7 @@
         <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>75</v>
@@ -5459,7 +5734,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5471,21 +5746,21 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5496,7 +5771,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5505,16 +5780,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5541,11 +5816,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5563,13 +5840,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5586,10 +5863,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5612,13 +5889,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5669,7 +5946,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5692,10 +5969,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5718,13 +5995,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5775,7 +6052,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5787,25 +6064,25 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5824,15 +6101,17 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -5881,7 +6160,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5893,25 +6172,25 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5924,22 +6203,26 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -5987,7 +6270,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5999,29 +6282,29 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>85</v>
@@ -6036,13 +6319,13 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6093,10 +6376,10 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>85</v>
@@ -6105,32 +6388,32 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6142,17 +6425,15 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6201,37 +6482,37 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6244,26 +6525,22 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6311,7 +6588,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6323,21 +6600,21 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6345,7 +6622,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
@@ -6360,13 +6637,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6417,10 +6694,10 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>85</v>
@@ -6429,7 +6706,7 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -6440,10 +6717,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6466,13 +6743,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6511,19 +6788,17 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6535,7 +6810,7 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -6546,12 +6821,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6572,15 +6849,17 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -6629,7 +6908,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6638,10 +6917,10 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -6652,10 +6931,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6678,13 +6957,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6708,7 +6987,7 @@
         <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>75</v>
@@ -6735,7 +7014,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -6753,15 +7032,15 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6769,7 +7048,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -6781,16 +7060,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6817,29 +7096,29 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -6851,7 +7130,7 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -6862,10 +7141,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6873,10 +7152,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -6888,17 +7167,15 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -6947,7 +7224,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -6956,10 +7233,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -6970,46 +7247,42 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7057,33 +7330,33 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7091,10 +7364,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7106,13 +7379,13 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7163,13 +7436,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -7186,10 +7459,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7212,13 +7485,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7269,7 +7542,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7292,10 +7565,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7306,7 +7579,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7318,13 +7591,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7375,44 +7648,44 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7424,15 +7697,17 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -7481,37 +7756,37 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>291</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7524,24 +7799,26 @@
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -7589,7 +7866,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7601,21 +7878,21 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>297</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7623,7 +7900,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>85</v>
@@ -7638,17 +7915,15 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -7697,10 +7972,10 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>85</v>
@@ -7712,18 +7987,18 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>303</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7734,7 +8009,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -7746,13 +8021,13 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7803,13 +8078,13 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
@@ -7826,10 +8101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7852,13 +8127,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7909,7 +8184,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -7927,15 +8202,15 @@
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7958,13 +8233,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8015,7 +8290,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8027,21 +8302,21 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8049,10 +8324,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8061,16 +8336,16 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8109,31 +8384,29 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
@@ -8144,21 +8417,23 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8170,15 +8445,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8227,7 +8504,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8236,10 +8513,10 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
@@ -8250,42 +8527,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -8333,44 +8614,44 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8382,17 +8663,15 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8441,37 +8720,37 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>159</v>
+        <v>351</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8484,26 +8763,22 @@
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8551,7 +8826,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -8563,21 +8838,21 @@
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8585,10 +8860,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -8600,13 +8875,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8657,13 +8932,13 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
@@ -8680,10 +8955,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8706,13 +8981,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8763,7 +9038,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -8778,18 +9053,18 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8800,7 +9075,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -8812,15 +9087,17 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -8869,13 +9146,13 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
@@ -8884,9 +9161,1289 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceDefinition.xlsx
+++ b/StructureDefinition-profile-DeviceDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0665094-06:00</t>
+    <t>2026-02-17T14:42:26.7851274-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Additional information to describe the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.description` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.description` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>Identifier associated with the regulatory documentation (certificates, technical documentation, post-market surveillance documentation and reports) of a set of device models sharing the same intended purpose, risk class and essential design and manufacturing characteristics. One example is the Basic UDI-DI in Europe.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.regulatoryIdentifier` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.regulatoryIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:partNumber</t>
@@ -498,7 +498,7 @@
     <t>The part number or catalog number of the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.partNumber` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.partNumber` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:classification</t>
@@ -517,7 +517,7 @@
     <t>What kind of device or device system this is.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.classification` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.classification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:hasPart</t>
@@ -536,7 +536,7 @@
     <t>A device that is part (for example a component) of the present device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.hasPart` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.hasPart` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:packaging</t>
@@ -555,7 +555,7 @@
     <t>Information about the packaging of the device, i.e. how the device is packaged.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.packaging` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:link</t>
@@ -574,7 +574,7 @@
     <t>An associated device, attached to, used with, communicating with or linking a previous or new device model to the focal device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.link` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.link` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:productionIdentifierInUDI</t>
@@ -593,7 +593,7 @@
     <t>Indicates the production identifier(s) that are expected to appear in the UDI carrier on the device label.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.productionIdentifierInUDI` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.productionIdentifierInUDI` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:guideline</t>
@@ -612,7 +612,7 @@
     <t>Information aimed at providing directions for the usage of this model of device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:correctiveAction</t>
@@ -631,7 +631,7 @@
     <t>Tracking of latest field safety corrective action.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.correctiveAction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.correctiveAction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:chargeItem</t>
@@ -650,7 +650,7 @@
     <t>Billing code or reference associated with the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.chargeItem` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.chargeItem` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.modifierExtension</t>
@@ -730,24 +730,21 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DeviceDefinition.udiDeviceIdentifier.extension:marketDistribution</t>
-  </si>
-  <si>
-    <t>marketDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution|0.0.1-snapshot-3}
+    <t>DeviceDefinition.udiDeviceIdentifier.extension:udiDeviceIdentifier</t>
+  </si>
+  <si>
+    <t>udiDeviceIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.udiDeviceIdentifier.marketDistribution from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates where and when the device is available on the market.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Cross-version extension for DeviceDefinition.udiDeviceIdentifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier`, but has no comparisons.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined as a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>DeviceDefinition.udiDeviceIdentifier.modifierExtension</t>
@@ -828,10 +825,23 @@
     <t>DeviceDefinition.deviceName.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>DeviceDefinition.deviceName.extension:deviceName</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.deviceName|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.deviceName from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The name or names of the device as given by the manufacturer.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.deviceName` has is mapped to FHIR R4 element `DeviceDefinition.deviceName`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceDefinition.deviceName.modifierExtension</t>
@@ -918,6 +928,25 @@
     <t>DeviceDefinition.specialization.extension</t>
   </si>
   <si>
+    <t>DeviceDefinition.specialization.extension:conformsTo</t>
+  </si>
+  <si>
+    <t>conformsTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.conformsTo|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.conformsTo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the standards, specifications, or formal guidances for the capabilities supported by the device. The device may be certified as conformant to these specifications e.g., communication, performance, process, measurement, or specialization standards.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.conformsTo` has is mapped to FHIR R4 element `DeviceDefinition.specialization`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>DeviceDefinition.specialization.modifierExtension</t>
   </si>
   <si>
@@ -976,7 +1005,7 @@
     <t>The version of the device or software.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version` is mapped to FHIR R4 element `DeviceDefinition.version`.</t>
+    <t>Element `DeviceDefinition.version` has is mapped to FHIR R4 element `DeviceDefinition.version`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceDefinition.version.value</t>
@@ -1053,6 +1082,12 @@
     <t>DeviceDefinition.capability.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>DeviceDefinition.capability.modifierExtension</t>
   </si>
   <si>
@@ -1089,24 +1124,23 @@
     <t>DeviceDefinition.property.extension</t>
   </si>
   <si>
-    <t>DeviceDefinition.property.extension:value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property.value|0.0.1-snapshot-3}
+    <t>DeviceDefinition.property.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.property.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The value of the property specified by the associated property.type code.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.property.value[x]` is mapped to FHIR R4 element `DeviceDefinition.property.valueQuantity`.
-Element `DeviceDefinition.property.value[x]` is mapped to FHIR R4 element `DeviceDefinition.property.valueCode`.</t>
+    <t>Cross-version extension for DeviceDefinition.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Static or essentially fixed characteristics or features of this kind of device that are otherwise not captured in more specific attributes, e.g., time or timing attributes, resolution, accuracy, and physical attributes.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.property` has is mapped to FHIR R4 element `DeviceDefinition.property`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceDefinition.property.modifierExtension</t>
@@ -1259,6 +1293,22 @@
   </si>
   <si>
     <t>DeviceDefinition.material.extension</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.material.extension:material</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.material|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceDefinition.material from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.material` has is mapped to FHIR R4 element `DeviceDefinition.material`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceDefinition.material.modifierExtension</t>
@@ -1599,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL82"/>
+  <dimension ref="A1:AL85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1608,7 +1658,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.08203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.1015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.6953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1618,7 +1668,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4399,10 +4449,10 @@
         <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4475,14 +4525,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4504,10 +4554,10 @@
         <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>208</v>
@@ -4562,7 +4612,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4585,10 +4635,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4614,10 +4664,10 @@
         <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4668,7 +4718,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4691,10 +4741,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4720,10 +4770,10 @@
         <v>99</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4774,7 +4824,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4797,10 +4847,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4826,10 +4876,10 @@
         <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4880,7 +4930,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
@@ -4903,10 +4953,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4929,13 +4979,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4986,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5001,18 +5051,18 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5038,10 +5088,10 @@
         <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5092,7 +5142,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5115,10 +5165,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5221,14 +5271,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5250,14 +5300,12 @@
         <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5294,16 +5342,14 @@
         <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>227</v>
@@ -5324,19 +5370,21 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5349,26 +5397,24 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5416,7 +5462,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5425,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>136</v>
@@ -5434,47 +5480,51 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5522,37 +5572,37 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5571,7 +5621,7 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>267</v>
@@ -5604,13 +5654,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5628,7 +5678,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>85</v>
@@ -5643,18 +5693,18 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5662,7 +5712,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5677,13 +5727,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5710,13 +5760,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5734,10 +5784,10 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5749,18 +5799,18 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5783,13 +5833,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5816,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5840,7 +5890,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5855,18 +5905,18 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5877,7 +5927,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5889,13 +5939,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5922,13 +5972,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -5946,13 +5996,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -5983,7 +6033,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -5995,13 +6045,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6052,44 +6102,44 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6101,17 +6151,15 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6160,19 +6208,19 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6183,14 +6231,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6203,26 +6251,22 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6258,19 +6302,17 @@
         <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6288,26 +6330,28 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6319,15 +6363,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6376,19 +6422,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6399,42 +6445,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6482,44 +6532,44 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6534,10 +6584,10 @@
         <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6588,13 +6638,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6611,10 +6661,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6640,10 +6690,10 @@
         <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6694,7 +6744,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6706,10 +6756,10 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6717,10 +6767,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6743,13 +6793,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6788,17 +6838,19 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6810,7 +6862,7 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -6821,14 +6873,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6837,7 +6887,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6849,17 +6899,15 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -6908,19 +6956,19 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -6931,10 +6979,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6945,7 +6993,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -6957,13 +7005,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6987,7 +7035,7 @@
         <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>75</v>
@@ -7002,31 +7050,29 @@
         <v>75</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7037,12 +7083,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7060,10 +7108,10 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>314</v>
@@ -7071,7 +7119,9 @@
       <c r="M51" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7096,11 +7146,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7118,7 +7170,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7127,10 +7179,10 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7155,7 +7207,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7167,13 +7219,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7197,7 +7249,7 @@
         <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>75</v>
@@ -7224,19 +7276,19 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7247,10 +7299,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7261,7 +7313,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7270,16 +7322,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7306,13 +7358,11 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7330,13 +7380,13 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
@@ -7353,10 +7403,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7379,13 +7429,13 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7436,7 +7486,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7459,10 +7509,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7473,7 +7523,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7485,13 +7535,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7542,13 +7592,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7565,10 +7615,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7579,7 +7629,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7591,13 +7641,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7648,37 +7698,37 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7697,17 +7747,15 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -7756,7 +7804,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7768,57 +7816,53 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -7866,44 +7910,44 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -7915,15 +7959,17 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -7972,37 +8018,37 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8015,22 +8061,26 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8078,7 +8128,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8090,21 +8140,21 @@
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8112,10 +8162,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8127,13 +8177,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8184,13 +8234,13 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
@@ -8207,10 +8257,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8221,7 +8271,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8233,13 +8283,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>222</v>
+        <v>348</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8290,33 +8340,33 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8324,7 +8374,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8339,13 +8389,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8384,17 +8434,19 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>227</v>
+        <v>350</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8406,7 +8458,7 @@
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
@@ -8417,20 +8469,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>85</v>
@@ -8445,17 +8495,15 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>346</v>
+        <v>221</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8504,37 +8552,37 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8547,26 +8595,22 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -8602,19 +8646,17 @@
         <v>75</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8632,26 +8674,28 @@
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8663,15 +8707,17 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8720,19 +8766,19 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -8743,14 +8789,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8763,22 +8809,26 @@
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8826,7 +8876,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -8838,21 +8888,21 @@
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8860,10 +8910,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -8875,13 +8925,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8932,13 +8982,13 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
@@ -8955,10 +9005,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8969,7 +9019,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -8981,13 +9031,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9038,13 +9088,13 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>75</v>
@@ -9053,18 +9103,18 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9087,17 +9137,15 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N70" t="s" s="2">
         <v>371</v>
       </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -9146,7 +9194,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9161,18 +9209,18 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9195,7 +9243,7 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>99</v>
+        <v>373</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>374</v>
@@ -9203,9 +9251,7 @@
       <c r="M71" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -9254,7 +9300,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9269,18 +9315,18 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9291,7 +9337,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9303,7 +9349,7 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>99</v>
+        <v>379</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>380</v>
@@ -9311,7 +9357,9 @@
       <c r="M72" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -9360,13 +9408,13 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
@@ -9375,18 +9423,18 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>75</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9397,7 +9445,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9409,15 +9457,17 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>383</v>
+        <v>99</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9466,13 +9516,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -9481,18 +9531,18 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9515,13 +9565,13 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9572,7 +9622,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9595,10 +9645,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9609,7 +9659,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -9618,16 +9668,16 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9678,13 +9728,13 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>75</v>
@@ -9696,15 +9746,15 @@
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>75</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9715,7 +9765,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9727,13 +9777,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9784,13 +9834,13 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
@@ -9807,10 +9857,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9830,16 +9880,16 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>402</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>403</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9890,7 +9940,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -9902,25 +9952,25 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -9939,17 +9989,15 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -9998,7 +10046,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10010,57 +10058,53 @@
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10108,33 +10152,33 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10142,10 +10186,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10157,13 +10201,13 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>401</v>
+        <v>131</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>402</v>
+        <v>132</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10202,31 +10246,29 @@
         <v>75</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -10237,12 +10279,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10251,7 +10295,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10263,15 +10307,17 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -10320,19 +10366,19 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>403</v>
+        <v>227</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
@@ -10343,42 +10389,46 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>404</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
       </c>
@@ -10426,24 +10476,342 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>407</v>
+        <v>237</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
+      <c r="G83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceDefinition.xlsx
+++ b/StructureDefinition-profile-DeviceDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7851274-06:00</t>
+    <t>2026-02-20T11:59:20.7812529-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,217 +440,218 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>DeviceDefinition.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.description|0.0.1-snapshot-3}
+    <t>DeviceDefinition.extension:regulatoryIdentifier</t>
+  </si>
+  <si>
+    <t>regulatoryIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Additional information to describe the device.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.description` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Cross-version extension for DeviceDefinition.regulatoryIdentifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifier associated with the regulatory documentation (certificates, technical documentation, post-market surveillance documentation and reports) of a set of device models sharing the same intended purpose, risk class and essential design and manufacturing characteristics. One example is the Basic UDI-DI in Europe.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.regulatoryIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>DeviceDefinition.extension:regulatoryIdentifier</t>
-  </si>
-  <si>
-    <t>regulatoryIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier|0.0.1-snapshot-3}
+    <t>DeviceDefinition.extension:partNumber</t>
+  </si>
+  <si>
+    <t>partNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.partNumber}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.regulatoryIdentifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifier associated with the regulatory documentation (certificates, technical documentation, post-market surveillance documentation and reports) of a set of device models sharing the same intended purpose, risk class and essential design and manufacturing characteristics. One example is the Basic UDI-DI in Europe.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.regulatoryIdentifier` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:partNumber</t>
-  </si>
-  <si>
-    <t>partNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.partNumber|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.partNumber from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The part number or catalog number of the device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.partNumber` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:classification</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.partNumber from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The part number or catalog number of the device.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.partNumber` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:classification</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.classification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>What kind of device or device system this is.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.classification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:hasPart</t>
+  </si>
+  <si>
+    <t>hasPart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.classification from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>What kind of device or device system this is.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.classification` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:hasPart</t>
-  </si>
-  <si>
-    <t>hasPart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.hasPart from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A device that is part (for example a component) of the present device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.hasPart` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:packaging</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.hasPart from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A device that is part (for example a component) of the present device.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.hasPart` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:packaging</t>
-  </si>
-  <si>
-    <t>packaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.packaging from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information about the packaging of the device, i.e. how the device is packaged.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.packaging from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Information about the packaging of the device, i.e. how the device is packaged.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.packaging` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.link from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An associated device, attached to, used with, communicating with or linking a previous or new device model to the focal device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.link` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:productionIdentifierInUDI</t>
+  </si>
+  <si>
+    <t>productionIdentifierInUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.productionIdentifierInUDI}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An associated device, attached to, used with, communicating with or linking a previous or new device model to the focal device.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.link` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:productionIdentifierInUDI</t>
-  </si>
-  <si>
-    <t>productionIdentifierInUDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.productionIdentifierInUDI|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.productionIdentifierInUDI from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the production identifier(s) that are expected to appear in the UDI carrier on the device label.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.productionIdentifierInUDI` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:guideline</t>
+  </si>
+  <si>
+    <t>guideline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.productionIdentifierInUDI from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the production identifier(s) that are expected to appear in the UDI carrier on the device label.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.productionIdentifierInUDI` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:guideline</t>
-  </si>
-  <si>
-    <t>guideline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.guideline from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information aimed at providing directions for the usage of this model of device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.guideline` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:correctiveAction</t>
+  </si>
+  <si>
+    <t>correctiveAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.guideline from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Information aimed at providing directions for the usage of this model of device.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.guideline` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:correctiveAction</t>
-  </si>
-  <si>
-    <t>correctiveAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.correctiveAction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Tracking of latest field safety corrective action.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.correctiveAction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:chargeItem</t>
+  </si>
+  <si>
+    <t>chargeItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.correctiveAction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Tracking of latest field safety corrective action.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.correctiveAction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:chargeItem</t>
-  </si>
-  <si>
-    <t>chargeItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem|0.0.1-snapshot-3}
+    <t>Cross-version extension for DeviceDefinition.chargeItem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Billing code or reference associated with the device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.chargeItem` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-description}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.chargeItem from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Billing code or reference associated with the device.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.chargeItem` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Cross-version extension for DeviceDefinition.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
+Element `DeviceDefinition.description` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.modifierExtension</t>
@@ -736,7 +737,7 @@
     <t>udiDeviceIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier}
 </t>
   </si>
   <si>
@@ -831,7 +832,7 @@
     <t>deviceName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.deviceName|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.deviceName}
 </t>
   </si>
   <si>
@@ -934,17 +935,15 @@
     <t>conformsTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.conformsTo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {device-conformsTo}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DeviceDefinition.conformsTo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Identifies the standards, specifications, or formal guidances for the capabilities supported by the device. The device may be certified as conformant to these specifications e.g., communication, performance, process, measurement, or specialization standards.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.conformsTo` has is mapped to FHIR R4 element `DeviceDefinition.specialization`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.conformsTo`: `http://hl7.org/fhir/StructureDefinition/device-conformsTo`.
+Element `DeviceDefinition.conformsTo` has is mapped to FHIR R4 element `DeviceDefinition.specialization`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceDefinition.specialization.modifierExtension</t>
@@ -995,7 +994,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version}
 </t>
   </si>
   <si>
@@ -1130,7 +1129,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property}
 </t>
   </si>
   <si>
@@ -1301,7 +1300,7 @@
     <t>material</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.material|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.material}
 </t>
   </si>
   <si>
@@ -1668,7 +1667,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2689,7 +2688,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2799,7 +2798,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2909,7 +2908,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3459,7 +3458,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3679,7 +3678,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3789,7 +3788,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3869,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>136</v>
@@ -5945,7 +5944,7 @@
         <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6369,10 +6368,10 @@
         <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6431,7 +6430,7 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>136</v>
@@ -6445,10 +6444,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6555,10 +6554,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6584,10 +6583,10 @@
         <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6638,7 +6637,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>85</v>
@@ -6661,10 +6660,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6690,10 +6689,10 @@
         <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6744,7 +6743,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6767,10 +6766,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6796,10 +6795,10 @@
         <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6850,7 +6849,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6873,10 +6872,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6902,10 +6901,10 @@
         <v>221</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6979,10 +6978,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7083,13 +7082,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>75</v>
@@ -7111,16 +7110,16 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7193,10 +7192,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7222,10 +7221,10 @@
         <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7249,34 +7248,34 @@
         <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7299,10 +7298,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7328,10 +7327,10 @@
         <v>281</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7362,7 +7361,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7380,7 +7379,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7403,10 +7402,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7429,13 +7428,13 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7486,7 +7485,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7509,10 +7508,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7535,13 +7534,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7592,7 +7591,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7615,10 +7614,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7644,10 +7643,10 @@
         <v>281</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7698,7 +7697,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7721,10 +7720,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7750,10 +7749,10 @@
         <v>217</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7804,7 +7803,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7827,10 +7826,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7933,10 +7932,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7962,10 +7961,10 @@
         <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>208</v>
@@ -8041,10 +8040,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8151,10 +8150,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8180,10 +8179,10 @@
         <v>281</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8234,7 +8233,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>85</v>
@@ -8257,10 +8256,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8286,10 +8285,10 @@
         <v>281</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8340,7 +8339,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8363,10 +8362,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8392,10 +8391,10 @@
         <v>217</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8446,7 +8445,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8469,10 +8468,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8575,10 +8574,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8679,13 +8678,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>75</v>
@@ -8707,16 +8706,16 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8789,10 +8788,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8899,10 +8898,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8928,10 +8927,10 @@
         <v>281</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8982,7 +8981,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9005,10 +9004,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9031,13 +9030,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9088,7 +9087,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9111,10 +9110,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9140,10 +9139,10 @@
         <v>281</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9194,7 +9193,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9217,10 +9216,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9243,13 +9242,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9300,7 +9299,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9315,18 +9314,18 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9349,16 +9348,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9408,7 +9407,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9423,18 +9422,18 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9460,13 +9459,13 @@
         <v>99</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9516,7 +9515,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9531,18 +9530,18 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9568,10 +9567,10 @@
         <v>99</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9622,7 +9621,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9645,10 +9644,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9671,13 +9670,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9728,7 +9727,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9746,15 +9745,15 @@
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9777,13 +9776,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9834,7 +9833,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9857,10 +9856,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9883,13 +9882,13 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9940,7 +9939,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -9963,10 +9962,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9992,10 +9991,10 @@
         <v>217</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10046,7 +10045,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10069,10 +10068,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10175,10 +10174,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10279,13 +10278,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>75</v>
@@ -10307,16 +10306,16 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10389,10 +10388,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10499,10 +10498,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10528,10 +10527,10 @@
         <v>281</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10582,7 +10581,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>85</v>
@@ -10605,10 +10604,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10631,13 +10630,13 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10688,7 +10687,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10711,10 +10710,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10737,13 +10736,13 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10794,7 +10793,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-DeviceDefinition.xlsx
+++ b/StructureDefinition-profile-DeviceDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="404">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7812529-06:00</t>
+    <t>2026-02-21T13:36:54.1961611-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>regulatoryIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.regulatoryIdentifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>partNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.partNumber}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.partNumber|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.classification|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>hasPart</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.hasPart|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>packaging</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.packaging|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>productionIdentifierInUDI</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.productionIdentifierInUDI}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.productionIdentifierInUDI|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>guideline</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>correctiveAction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>chargeItem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -632,26 +632,6 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-description}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceDefinition.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
-Element `DeviceDefinition.description` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>DeviceDefinition.modifierExtension</t>
@@ -731,21 +711,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DeviceDefinition.udiDeviceIdentifier.extension:udiDeviceIdentifier</t>
-  </si>
-  <si>
-    <t>udiDeviceIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier}
+    <t>DeviceDefinition.udiDeviceIdentifier.extension:marketDistribution</t>
+  </si>
+  <si>
+    <t>marketDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.udiDeviceIdentifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier`, but has no comparisons.
-Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined as a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
+    <t>Cross-version extension for DeviceDefinition.udiDeviceIdentifier.marketDistribution from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates where and when the device is available on the market.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>DeviceDefinition.udiDeviceIdentifier.modifierExtension</t>
@@ -826,23 +809,10 @@
     <t>DeviceDefinition.deviceName.extension</t>
   </si>
   <si>
-    <t>DeviceDefinition.deviceName.extension:deviceName</t>
-  </si>
-  <si>
-    <t>deviceName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.deviceName}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceDefinition.deviceName from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The name or names of the device as given by the manufacturer.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.deviceName` has is mapped to FHIR R4 element `DeviceDefinition.deviceName`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DeviceDefinition.deviceName.modifierExtension</t>
@@ -929,82 +899,65 @@
     <t>DeviceDefinition.specialization.extension</t>
   </si>
   <si>
-    <t>DeviceDefinition.specialization.extension:conformsTo</t>
-  </si>
-  <si>
-    <t>conformsTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {device-conformsTo}
+    <t>DeviceDefinition.specialization.modifierExtension</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.specialization.systemType</t>
+  </si>
+  <si>
+    <t>The standard that is used to operate and communicate</t>
+  </si>
+  <si>
+    <t>The standard that is used to operate and communicate.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.specialization.version</t>
+  </si>
+  <si>
+    <t>The version of the standard that is used to operate and communicate</t>
+  </si>
+  <si>
+    <t>The version of the standard that is used to operate and communicate.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.version</t>
+  </si>
+  <si>
+    <t>Available versions</t>
+  </si>
+  <si>
+    <t>The available versions of the device, e.g., software versions.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.version.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.version.extension</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.version.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.conformsTo from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceDefinition.conformsTo`: `http://hl7.org/fhir/StructureDefinition/device-conformsTo`.
-Element `DeviceDefinition.conformsTo` has is mapped to FHIR R4 element `DeviceDefinition.specialization`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.specialization.modifierExtension</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.specialization.systemType</t>
-  </si>
-  <si>
-    <t>The standard that is used to operate and communicate</t>
-  </si>
-  <si>
-    <t>The standard that is used to operate and communicate.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.specialization.version</t>
-  </si>
-  <si>
-    <t>The version of the standard that is used to operate and communicate</t>
-  </si>
-  <si>
-    <t>The version of the standard that is used to operate and communicate.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.version</t>
-  </si>
-  <si>
-    <t>Available versions</t>
-  </si>
-  <si>
-    <t>The available versions of the device, e.g., software versions.</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.version.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.version.extension</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.version.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.version}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for DeviceDefinition.version from R5 for use in FHIR R4</t>
   </si>
   <si>
     <t>The version of the device or software.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.version` has is mapped to FHIR R4 element `DeviceDefinition.version`, but has no comparisons.</t>
+    <t>Element `DeviceDefinition.version` is mapped to FHIR R4 element `DeviceDefinition.version` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DeviceDefinition.version.value</t>
@@ -1081,12 +1034,6 @@
     <t>DeviceDefinition.capability.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>DeviceDefinition.capability.modifierExtension</t>
   </si>
   <si>
@@ -1123,23 +1070,24 @@
     <t>DeviceDefinition.property.extension</t>
   </si>
   <si>
-    <t>DeviceDefinition.property.extension:property</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property}
+    <t>DeviceDefinition.property.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.property.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DeviceDefinition.property from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Static or essentially fixed characteristics or features of this kind of device that are otherwise not captured in more specific attributes, e.g., time or timing attributes, resolution, accuracy, and physical attributes.</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.property` has is mapped to FHIR R4 element `DeviceDefinition.property`, but has no comparisons.</t>
+    <t>Cross-version extension for DeviceDefinition.property.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The value of the property specified by the associated property.type code.</t>
+  </si>
+  <si>
+    <t>Element `DeviceDefinition.property.value[x]` is mapped to FHIR R4 element `DeviceDefinition.property.valueQuantity` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Element `DeviceDefinition.property.value[x]` is mapped to FHIR R4 element `DeviceDefinition.property.valueCode` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DeviceDefinition.property.modifierExtension</t>
@@ -1292,22 +1240,6 @@
   </si>
   <si>
     <t>DeviceDefinition.material.extension</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.material.extension:material</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.material}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceDefinition.material from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `DeviceDefinition.material` has is mapped to FHIR R4 element `DeviceDefinition.material`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceDefinition.material.modifierExtension</t>
@@ -1648,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL85"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1657,7 +1589,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.1015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.6953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1667,7 +1599,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3775,43 +3707,43 @@
         <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3859,7 +3791,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3877,19 +3809,19 @@
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3902,26 +3834,22 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3969,7 +3897,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3981,21 +3909,21 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4018,13 +3946,13 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4075,7 +4003,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4090,7 +4018,7 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4098,10 +4026,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4112,7 +4040,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4124,13 +4052,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4181,25 +4109,25 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -4218,7 +4146,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4230,13 +4158,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4275,47 +4203,47 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4336,15 +4264,17 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4381,17 +4311,19 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4400,7 +4332,7 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
@@ -4417,13 +4349,11 @@
         <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4436,24 +4366,26 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4501,7 +4433,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4510,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>136</v>
@@ -4519,7 +4451,7 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -4531,39 +4463,35 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4611,33 +4539,33 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4660,13 +4588,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4717,7 +4645,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4740,10 +4668,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4769,10 +4697,10 @@
         <v>99</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4823,7 +4751,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4846,10 +4774,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4857,7 +4785,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
@@ -4872,13 +4800,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4929,10 +4857,10 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>85</v>
@@ -4944,18 +4872,18 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4966,7 +4894,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4978,7 +4906,7 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>249</v>
@@ -5035,13 +4963,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -5050,18 +4978,18 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5072,7 +5000,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5084,13 +5012,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5141,44 +5069,44 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5190,15 +5118,17 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5247,37 +5177,37 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5290,22 +5220,26 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5341,17 +5275,19 @@
         <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5369,28 +5305,26 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5402,17 +5336,15 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5461,19 +5393,19 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -5484,46 +5416,42 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5547,13 +5475,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5571,41 +5499,41 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>128</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
@@ -5620,13 +5548,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5677,10 +5605,10 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>85</v>
@@ -5692,18 +5620,18 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5711,7 +5639,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5726,13 +5654,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5759,13 +5687,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5783,10 +5711,10 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5798,18 +5726,18 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5820,7 +5748,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5832,13 +5760,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5889,13 +5817,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5904,10 +5832,10 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>279</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -5938,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5971,13 +5899,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -5995,7 +5923,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6007,25 +5935,25 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6044,15 +5972,17 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6101,7 +6031,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6113,53 +6043,57 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6207,44 +6141,44 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6256,13 +6190,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6301,29 +6235,31 @@
         <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6334,14 +6270,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6350,7 +6284,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6362,17 +6296,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6421,22 +6353,22 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6444,14 +6376,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6464,26 +6396,22 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6531,7 +6459,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6543,29 +6471,29 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>85</v>
@@ -6580,13 +6508,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6637,10 +6565,10 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>85</v>
@@ -6649,7 +6577,7 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
@@ -6660,10 +6588,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6674,7 +6602,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6686,13 +6614,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6731,34 +6659,32 @@
         <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6766,12 +6692,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>75</v>
       </c>
@@ -6792,15 +6720,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6849,7 +6779,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6858,10 +6788,10 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -6872,10 +6802,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6898,13 +6828,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6928,7 +6858,7 @@
         <v>75</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>75</v>
@@ -6955,7 +6885,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6978,10 +6908,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7001,16 +6931,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7037,29 +6967,29 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7071,7 +7001,7 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7082,14 +7012,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C51" t="s" s="2">
         <v>311</v>
       </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7118,9 +7046,7 @@
       <c r="M51" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7169,7 +7095,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7178,10 +7104,10 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7192,10 +7118,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7218,13 +7144,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>317</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7248,7 +7174,7 @@
         <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>75</v>
@@ -7275,7 +7201,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7287,7 +7213,7 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7298,10 +7224,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7321,16 +7247,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7357,11 +7283,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7379,7 +7307,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7402,10 +7330,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7428,13 +7356,13 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7485,7 +7413,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7508,10 +7436,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7534,13 +7462,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>331</v>
+        <v>217</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7591,7 +7519,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7603,25 +7531,25 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7640,15 +7568,17 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -7697,7 +7627,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7709,25 +7639,25 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7740,22 +7670,26 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -7803,7 +7737,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7815,21 +7749,21 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7837,7 +7771,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -7852,13 +7786,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7909,10 +7843,10 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>85</v>
@@ -7921,25 +7855,25 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7958,17 +7892,15 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -8017,7 +7949,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8029,25 +7961,25 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8060,26 +7992,22 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8127,7 +8055,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8139,21 +8067,21 @@
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8161,7 +8089,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>85</v>
@@ -8176,13 +8104,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8233,10 +8161,10 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>85</v>
@@ -8245,21 +8173,21 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8267,7 +8195,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8282,13 +8210,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8327,19 +8255,17 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>346</v>
+        <v>221</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8351,7 +8277,7 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
@@ -8362,21 +8288,23 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8388,15 +8316,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8445,7 +8375,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8454,10 +8384,10 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
@@ -8468,42 +8398,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
       </c>
@@ -8551,33 +8485,33 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8585,10 +8519,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -8600,13 +8534,13 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8645,29 +8579,31 @@
         <v>75</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -8678,14 +8614,12 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8706,17 +8640,15 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8765,7 +8697,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8774,10 +8706,10 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -8788,14 +8720,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8808,26 +8740,22 @@
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8875,7 +8803,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -8887,21 +8815,21 @@
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8909,7 +8837,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>85</v>
@@ -8924,13 +8852,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8981,10 +8909,10 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>85</v>
@@ -8996,18 +8924,18 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9030,15 +8958,17 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9087,7 +9017,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9102,18 +9032,18 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9124,7 +9054,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9136,15 +9066,17 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -9193,13 +9125,13 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
@@ -9208,18 +9140,18 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>75</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9242,13 +9174,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>372</v>
+        <v>99</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9299,7 +9231,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9314,18 +9246,18 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>376</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9348,17 +9280,15 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -9407,7 +9337,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9422,18 +9352,18 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9456,17 +9386,15 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>99</v>
+        <v>349</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9515,7 +9443,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9530,18 +9458,18 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>388</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9561,16 +9489,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9621,7 +9549,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9644,10 +9572,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9670,13 +9598,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9727,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9745,15 +9673,15 @@
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>396</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9776,13 +9704,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>398</v>
+        <v>216</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9833,7 +9761,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9845,32 +9773,32 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -9879,18 +9807,20 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>401</v>
+        <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -9939,37 +9869,37 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -9982,22 +9912,26 @@
         <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>75</v>
       </c>
@@ -10045,7 +9979,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10057,21 +9991,21 @@
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10079,7 +10013,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>85</v>
@@ -10094,13 +10028,13 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>222</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10151,10 +10085,10 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>85</v>
@@ -10163,21 +10097,21 @@
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10188,7 +10122,7 @@
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10200,13 +10134,13 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10245,29 +10179,31 @@
         <v>75</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC80" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -10278,14 +10214,12 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10294,7 +10228,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10306,17 +10240,15 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -10365,452 +10297,24 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>227</v>
+        <v>401</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL85" t="s" s="2">
         <v>75</v>
       </c>
     </row>
